--- a/商品一覧画面設計/商品一覧画面設計書.xlsx
+++ b/商品一覧画面設計/商品一覧画面設計書.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t xml:space="preserve">製品一覧画面</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t xml:space="preserve">製品ID、製品名、在庫、値段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取得が0件の場合メッセージを表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「商品がありません」</t>
   </si>
   <si>
     <t xml:space="preserve">1-2.ポイントテーブルから値を取得して表示。</t>
@@ -526,9 +532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>129600</xdr:colOff>
+      <xdr:colOff>129240</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -542,7 +548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="778320" y="533520"/>
-          <a:ext cx="2551680" cy="4953240"/>
+          <a:ext cx="2551320" cy="4952880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3064,7 +3070,7 @@
   <dimension ref="A1:AY52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="AN9" activeCellId="0" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3464,7 +3470,9 @@
       <c r="B8" s="28"/>
       <c r="C8" s="0"/>
       <c r="D8" s="0"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -3499,7 +3507,9 @@
       <c r="AK8" s="28"/>
       <c r="AL8" s="28"/>
       <c r="AM8" s="28"/>
-      <c r="AN8" s="27"/>
+      <c r="AN8" s="27" t="s">
+        <v>25</v>
+      </c>
       <c r="AO8" s="28"/>
       <c r="AP8" s="28"/>
       <c r="AQ8" s="28"/>
@@ -3516,7 +3526,7 @@
       <c r="A9" s="27"/>
       <c r="B9" s="0"/>
       <c r="C9" s="30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -3573,7 +3583,7 @@
       <c r="C10" s="0"/>
       <c r="D10" s="0"/>
       <c r="E10" s="30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
@@ -3628,7 +3638,7 @@
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
       <c r="E11" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
@@ -3683,7 +3693,7 @@
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
@@ -3788,7 +3798,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27"/>
       <c r="B14" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -3844,7 +3854,7 @@
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="28"/>
@@ -3951,7 +3961,7 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27"/>
       <c r="B17" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="0"/>
@@ -4003,16 +4013,16 @@
       <c r="AX17" s="28"/>
       <c r="AY17" s="29"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="0"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
@@ -4114,7 +4124,7 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27"/>
       <c r="B20" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -4170,7 +4180,7 @@
       <c r="A21" s="27"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
